--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,57 +636,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,57 +696,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,16 +827,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -857,51 +857,51 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -947,51 +947,51 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,561 +1037,561 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,51 +1667,51 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,21 +1727,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1757,81 +1757,81 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1847,21 +1847,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1877,81 +1877,81 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1967,21 +1967,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,16 +1997,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2057,81 +2057,81 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2147,51 +2147,51 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2207,21 +2207,21 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2237,111 +2237,111 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2357,21 +2357,21 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2387,21 +2387,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2411,27 +2411,27 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,21 +2447,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2477,21 +2477,21 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2507,21 +2507,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2537,16 +2537,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2561,22 +2561,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2597,16 +2597,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2627,21 +2627,21 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2657,76 +2657,76 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2747,16 +2747,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2766,32 +2766,32 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2807,21 +2807,21 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2837,81 +2837,81 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2921,27 +2921,27 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2957,21 +2957,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2987,149 +2987,29 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>43</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CrystalSky is too hot</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>44</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Restart aircraft</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>44</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Aircraft takeoff altitude error</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>45</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0-6</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,16 +617,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,57 +636,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,57 +696,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed Restart aircraft .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Satellite positioning off Fly with Caution .</t>
+          <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -827,16 +827,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -857,51 +857,51 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -947,51 +947,51 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,561 +1037,561 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,21 +1607,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,51 +1667,51 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,21 +1727,21 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1757,81 +1757,81 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1847,21 +1847,21 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1877,81 +1877,81 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1967,21 +1967,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,16 +1997,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2057,81 +2057,81 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2147,51 +2147,51 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2207,21 +2207,21 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2237,111 +2237,111 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2357,21 +2357,21 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2387,21 +2387,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2411,27 +2411,27 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,21 +2447,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2477,21 +2477,21 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2507,21 +2507,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2537,16 +2537,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2561,22 +2561,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2597,16 +2597,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2627,21 +2627,21 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2657,76 +2657,76 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2747,16 +2747,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2766,32 +2766,32 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2807,21 +2807,21 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2837,81 +2837,81 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2921,27 +2921,27 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2957,21 +2957,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2987,29 +2987,149 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>43</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cool down the monitor to prevent overheating</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4-10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>43</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CrystalSky is too hot</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>44</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Restart aircraft</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4-5</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>44</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Aircraft takeoff altitude error Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Aircraft takeoff altitude error</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
         <v>45</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>SD card write speed is too slow</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
